--- a/NformTester/NformTester/keywordscripts/TST1033_ExportLoggedData.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1033_ExportLoggedData.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7389" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7393" uniqueCount="847">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3634,9 +3634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3670,10 +3667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3800,6 +3793,16 @@
   </si>
   <si>
     <t>2. Timestamp fields will be formatted in the ISO date/time format. And it will be time zone selected in the viewer.</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4754,9 +4757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4849,7 +4854,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4890,7 +4895,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4921,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4946,7 +4951,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4965,7 +4970,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -4984,16 +4989,16 @@
         <v>796</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>798</v>
@@ -5006,13 +5011,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5037,7 +5042,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>19</v>
@@ -5064,13 +5069,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>2</v>
@@ -5093,7 +5098,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>577</v>
@@ -5105,7 +5110,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5124,7 +5129,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>577</v>
@@ -5153,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>518</v>
@@ -5182,7 +5187,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>575</v>
@@ -5211,7 +5216,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>575</v>
@@ -5223,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5242,7 +5247,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>575</v>
@@ -5271,7 +5276,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>518</v>
@@ -5300,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>577</v>
@@ -5331,10 +5336,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -5358,7 +5363,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -5643,13 +5648,13 @@
         <v>7</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -5674,13 +5679,13 @@
         <v>7</v>
       </c>
       <c r="H32" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>813</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -5705,13 +5710,13 @@
         <v>7</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I33" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>812</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>814</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -5736,7 +5741,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -5788,10 +5793,10 @@
         <v>7</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J36" s="5" t="b">
         <v>1</v>
@@ -5807,17 +5812,15 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="F37" s="5">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -5827,16 +5830,22 @@
       <c r="N37" s="7"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="5">
         <v>37</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="D38" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -5846,19 +5855,15 @@
       <c r="N38" s="7"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" ht="15">
       <c r="C39" s="5">
         <v>38</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2</v>
-      </c>
+      <c r="D39" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -5869,15 +5874,19 @@
       <c r="N39" s="7"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="3:15" ht="15">
+    <row r="40" spans="3:15">
       <c r="C40" s="5">
         <v>39</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="5"/>
+      <c r="D40" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2</v>
+      </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -5888,19 +5897,15 @@
       <c r="N40" s="7"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" ht="15">
       <c r="C41" s="5">
         <v>40</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2</v>
-      </c>
+      <c r="D41" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -5911,15 +5916,19 @@
       <c r="N41" s="7"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="3:15" ht="15">
+    <row r="42" spans="3:15">
       <c r="C42" s="5">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="5"/>
+      <c r="D42" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5</v>
+      </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -5930,26 +5939,20 @@
       <c r="N42" s="7"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" ht="15">
       <c r="C43" s="5">
         <v>42</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>828</v>
-      </c>
+      <c r="D43" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E43" s="11"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>840</v>
-      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="18"/>
+      <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="7"/>
@@ -5960,21 +5963,21 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="18"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="7"/>
@@ -5988,15 +5991,15 @@
         <v>788</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -6013,15 +6016,15 @@
         <v>788</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -6038,15 +6041,15 @@
         <v>788</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -6063,15 +6066,15 @@
         <v>788</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -6088,15 +6091,15 @@
         <v>788</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6113,15 +6116,15 @@
         <v>788</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6138,15 +6141,15 @@
         <v>788</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6163,15 +6166,15 @@
         <v>788</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -6180,42 +6183,43 @@
       <c r="N52" s="7"/>
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="3:15" ht="15">
+    <row r="53" spans="3:15">
       <c r="C53" s="5">
         <v>52</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="E53" s="11"/>
+      <c r="D53" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>827</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>836</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="7"/>
+      <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" ht="15">
       <c r="C54" s="5">
         <v>53</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="D54" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -6227,92 +6231,91 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+        <v>818</v>
+      </c>
+      <c r="F55" s="5">
+        <v>5</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="7"/>
+      <c r="O55" s="2"/>
     </row>
     <row r="56" spans="3:15">
       <c r="C56" s="5">
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>804</v>
+        <v>19</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>578</v>
+        <v>22</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="I56" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="16"/>
+      <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="3:15" ht="14.25">
+    <row r="57" spans="3:15">
       <c r="C57" s="5">
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>804</v>
+        <v>19</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="7"/>
     </row>
     <row r="58" spans="3:15">
       <c r="C58" s="5">
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>585</v>
-      </c>
       <c r="F58" s="5" t="s">
-        <v>200</v>
+        <v>578</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>801</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -6320,33 +6323,81 @@
       <c r="M58" s="5"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" ht="14.25">
       <c r="C59" s="5">
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>804</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="7"/>
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="3:15">
+      <c r="C60" s="5">
+        <v>59</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="3:15">
+      <c r="C61" s="5">
+        <v>60</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N59">
+  <conditionalFormatting sqref="N2:N61">
     <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -6355,16 +6406,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G59 G2:G55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G59:G61 G2:G57">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54 D3:D4 D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56 D3:D4 D7">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:E59 E2:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E61 E2:E43">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F61">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -28243,17 +28294,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1033_ExportLoggedData.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1033_ExportLoggedData.xlsx
@@ -3743,10 +3743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RecvDttm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DataLogId</t>
   </si>
   <si>
@@ -3802,6 +3798,10 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvDttm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4759,8 +4759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4989,16 +4989,16 @@
         <v>796</v>
       </c>
       <c r="I7" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>845</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>798</v>
@@ -5011,7 +5011,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5110,7 +5110,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5796,7 +5796,7 @@
         <v>821</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J36" s="5" t="b">
         <v>1</v>
@@ -5963,7 +5963,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>826</v>
@@ -5974,7 +5974,7 @@
         <v>820</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="18"/>
@@ -5999,7 +5999,7 @@
         <v>820</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -6024,7 +6024,7 @@
         <v>820</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -6049,7 +6049,7 @@
         <v>820</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -6074,7 +6074,7 @@
         <v>820</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -6099,7 +6099,7 @@
         <v>820</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -6124,7 +6124,7 @@
         <v>820</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -6149,7 +6149,7 @@
         <v>820</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -6174,7 +6174,7 @@
         <v>820</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -6199,7 +6199,7 @@
         <v>820</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -28294,17 +28294,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST1033_ExportLoggedData.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1033_ExportLoggedData.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7393" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7393" uniqueCount="848">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3767,10 +3767,6 @@
     <t>LoggingResult</t>
   </si>
   <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3791,17 +3787,27 @@
     <t>2. Timestamp fields will be formatted in the ISO date/time format. And it will be time zone selected in the viewer.</t>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RecvDttm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contants</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4759,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4945,7 +4951,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41121</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -4989,16 +4995,16 @@
         <v>796</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>797</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>798</v>
@@ -5008,11 +5014,9 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>836</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5033,11 +5037,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -5063,8 +5065,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5090,10 +5096,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5122,7 +5126,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5151,7 +5155,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5180,7 +5184,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5209,7 +5213,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5240,7 +5244,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5268,10 +5272,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5299,7 +5303,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5326,11 +5330,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5356,9 +5358,11 @@
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5379,7 +5383,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5407,6 +5411,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>809</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>819</v>
@@ -5796,7 +5804,7 @@
         <v>821</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J36" s="5" t="b">
         <v>1</v>
@@ -5963,7 +5971,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>826</v>
@@ -5974,9 +5982,11 @@
         <v>820</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>836</v>
+      </c>
+      <c r="J44" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K44" s="18"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -5999,9 +6009,11 @@
         <v>820</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>843</v>
+      </c>
+      <c r="J45" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -6026,7 +6038,9 @@
       <c r="I46" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -6051,7 +6065,9 @@
       <c r="I47" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -6076,7 +6092,9 @@
       <c r="I48" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -6101,7 +6119,9 @@
       <c r="I49" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -6126,7 +6146,9 @@
       <c r="I50" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -6151,7 +6173,9 @@
       <c r="I51" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -6176,7 +6200,9 @@
       <c r="I52" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -6201,7 +6227,9 @@
       <c r="I53" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -28294,17 +28322,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
